--- a/DevTools.Application/Converters/FaM/Ferry/voucher.xlsx
+++ b/DevTools.Application/Converters/FaM/Ferry/voucher.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadina/code/DevTools/DevTools.Application/Converters/FaM/Ferry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2A5B01-863C-4E42-AF6E-69E8940BD3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F6AD47-8602-1646-A517-D461C6BDC948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{6829827D-09D1-CF4B-AD33-B81AB5060B75}"/>
   </bookViews>
@@ -906,9 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A441BE8-1BC7-E140-B392-CF7CDC2E1FEE}">
   <dimension ref="B2:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -979,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC092620-808B-2F45-ADCB-78E336BCB5ED}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1070,7 @@
     <row r="34" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/DevTools.Application/Converters/FaM/Ferry/voucher.xlsx
+++ b/DevTools.Application/Converters/FaM/Ferry/voucher.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadina/code/DevTools/DevTools.Application/Converters/FaM/Ferry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F6AD47-8602-1646-A517-D461C6BDC948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCE8DFC-EC6A-704A-97B4-50B4D2BAF269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{6829827D-09D1-CF4B-AD33-B81AB5060B75}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{6829827D-09D1-CF4B-AD33-B81AB5060B75}"/>
   </bookViews>
   <sheets>
     <sheet name="FerryInfos" sheetId="3" r:id="rId1"/>
     <sheet name="Template" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,18 +88,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="hh:mm\ &quot;Uhr&quot;"/>
+    <numFmt numFmtId="164" formatCode="hh:mm\ &quot;Uhr&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -130,6 +123,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -150,78 +149,42 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{22ACDF05-5EDA-1D41-870A-FC85B11AE45C}"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{94F6EEF5-6F0F-3243-84B4-20579CE8B19C}"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -234,6 +197,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -245,277 +220,180 @@
     <dxf>
       <font>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -554,8 +432,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Ferry" table="0" count="2" xr9:uid="{6DE1F345-0104-B34A-A993-A15BAF7C2F2E}">
-      <tableStyleElement type="wholeTable" dxfId="62"/>
-      <tableStyleElement type="headerRow" dxfId="61"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -570,18 +448,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1273F9B9-C212-3B42-B376-F47E1B17ABC8}" name="FerryInfo" displayName="FerryInfo" ref="B2:K3" insertRow="1" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1273F9B9-C212-3B42-B376-F47E1B17ABC8}" name="FerryInfo" displayName="FerryInfo" ref="B2:K3" insertRow="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{052DCD16-1AB7-4B4D-9FF9-AE60F9DFC95C}" name="Ferry" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{7F3604C6-B171-3644-A719-E8FC1FB74427}" name="DEP Date" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{1B0DDF15-1EEB-7448-88DA-D72C9F81E2B7}" name="DEP Time" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{3DEACAD5-8891-B54D-8B59-A964BF63B231}" name="From" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{0250A9C3-93F7-E844-B753-14CE5C8975F7}" name="ARR Date" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{12D3CE89-739F-0945-86C0-07239D18CA6E}" name="ARR Time" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{06171663-F6CD-BD47-95DD-2C994B3AD16E}" name="To" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{119825D9-B082-8449-B975-6E0CFFAA1583}" name="RefNo_Cab" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{31B253F8-7ABD-3645-BFD9-134F6867411F}" name="RefNo_Vehicule" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{989AECC5-B403-7C4F-9EF0-DBC06F15DF95}" name="Key" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{052DCD16-1AB7-4B4D-9FF9-AE60F9DFC95C}" name="Ferry" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{7F3604C6-B171-3644-A719-E8FC1FB74427}" name="DEP Date" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{1B0DDF15-1EEB-7448-88DA-D72C9F81E2B7}" name="DEP Time" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3DEACAD5-8891-B54D-8B59-A964BF63B231}" name="From" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{0250A9C3-93F7-E844-B753-14CE5C8975F7}" name="ARR Date" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{12D3CE89-739F-0945-86C0-07239D18CA6E}" name="ARR Time" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{06171663-F6CD-BD47-95DD-2C994B3AD16E}" name="To" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{119825D9-B082-8449-B975-6E0CFFAA1583}" name="RefNo_Cab" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{31B253F8-7ABD-3645-BFD9-134F6867411F}" name="RefNo_Vehicule" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{989AECC5-B403-7C4F-9EF0-DBC06F15DF95}" name="Key" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -906,63 +784,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A441BE8-1BC7-E140-B392-CF7CDC2E1FEE}">
   <dimension ref="B2:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="14.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="5"/>
+    <col min="6" max="6" width="11.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="5"/>
+    <col min="9" max="9" width="12.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -977,103 +853,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC092620-808B-2F45-ADCB-78E336BCB5ED}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="3" width="8.1640625" customWidth="1"/>
-    <col min="4" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="8.1640625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="26.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="11"/>
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="11"/>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:F3"/>
@@ -1082,22 +959,22 @@
     <mergeCell ref="D5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:G3 D5:F5">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="(Leer)">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="(Leer)">
       <formula>NOT(ISERROR(SEARCH("(Leer)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3 D5">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="(Leer)">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="(Leer)">
       <formula>NOT(ISERROR(SEARCH("(Leer)",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="(Leer)">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="(Leer)">
       <formula>NOT(ISERROR(SEARCH("(Leer)",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 F4 A4:B5 G4:G5">
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="(Leer)">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="(Leer)">
       <formula>NOT(ISERROR(SEARCH("(Leer)",A4)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DevTools.Application/Converters/FaM/Ferry/voucher.xlsx
+++ b/DevTools.Application/Converters/FaM/Ferry/voucher.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadina/code/DevTools/DevTools.Application/Converters/FaM/Ferry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCE8DFC-EC6A-704A-97B4-50B4D2BAF269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DF127E-A47D-E249-9C84-513DCDF6A62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{6829827D-09D1-CF4B-AD33-B81AB5060B75}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{6829827D-09D1-CF4B-AD33-B81AB5060B75}"/>
   </bookViews>
   <sheets>
     <sheet name="FerryInfos" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Ferry</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Key</t>
+  </si>
+  <si>
+    <t>Export</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -169,14 +172,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -184,7 +190,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{22ACDF05-5EDA-1D41-870A-FC85B11AE45C}"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{94F6EEF5-6F0F-3243-84B4-20579CE8B19C}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -231,6 +237,24 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -432,8 +456,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Ferry" table="0" count="2" xr9:uid="{6DE1F345-0104-B34A-A993-A15BAF7C2F2E}">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -448,17 +472,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1273F9B9-C212-3B42-B376-F47E1B17ABC8}" name="FerryInfo" displayName="FerryInfo" ref="B2:K3" insertRow="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{052DCD16-1AB7-4B4D-9FF9-AE60F9DFC95C}" name="Ferry" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7F3604C6-B171-3644-A719-E8FC1FB74427}" name="DEP Date" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{1B0DDF15-1EEB-7448-88DA-D72C9F81E2B7}" name="DEP Time" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{3DEACAD5-8891-B54D-8B59-A964BF63B231}" name="From" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{0250A9C3-93F7-E844-B753-14CE5C8975F7}" name="ARR Date" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{12D3CE89-739F-0945-86C0-07239D18CA6E}" name="ARR Time" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{06171663-F6CD-BD47-95DD-2C994B3AD16E}" name="To" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{119825D9-B082-8449-B975-6E0CFFAA1583}" name="RefNo_Cab" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{31B253F8-7ABD-3645-BFD9-134F6867411F}" name="RefNo_Vehicule" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1273F9B9-C212-3B42-B376-F47E1B17ABC8}" name="FerryInfo" displayName="FerryInfo" ref="B2:L3" insertRow="1" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{052DCD16-1AB7-4B4D-9FF9-AE60F9DFC95C}" name="Ferry" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{7F3604C6-B171-3644-A719-E8FC1FB74427}" name="DEP Date" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{1B0DDF15-1EEB-7448-88DA-D72C9F81E2B7}" name="DEP Time" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{3DEACAD5-8891-B54D-8B59-A964BF63B231}" name="From" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{0250A9C3-93F7-E844-B753-14CE5C8975F7}" name="ARR Date" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{12D3CE89-739F-0945-86C0-07239D18CA6E}" name="ARR Time" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{06171663-F6CD-BD47-95DD-2C994B3AD16E}" name="To" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{119825D9-B082-8449-B975-6E0CFFAA1583}" name="RefNo_Cab" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{31B253F8-7ABD-3645-BFD9-134F6867411F}" name="RefNo_Vehicule" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{46DD0F50-C308-D949-BE68-63D6044BCC27}" name="Export" dataDxfId="5"/>
     <tableColumn id="10" xr3:uid="{989AECC5-B403-7C4F-9EF0-DBC06F15DF95}" name="Key" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -782,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A441BE8-1BC7-E140-B392-CF7CDC2E1FEE}">
-  <dimension ref="B2:K3"/>
+  <dimension ref="B2:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,12 +824,12 @@
     <col min="7" max="7" width="11.33203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="5"/>
     <col min="9" max="9" width="12.83203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="5"/>
+    <col min="10" max="11" width="16.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="5" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -833,10 +858,13 @@
         <v>8</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C3" s="5"/>
       <c r="F3" s="5"/>
     </row>
@@ -851,119 +879,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC092620-808B-2F45-ADCB-78E336BCB5ED}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="8.1640625" style="5" customWidth="1"/>
-    <col min="4" max="5" width="26.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="16.33203125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="26.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="2"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="7"/>
+    <row r="6" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="7"/>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:G3 D5:F5">
+  <conditionalFormatting sqref="A1:F3 C5:E5">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="(Leer)">
       <formula>NOT(ISERROR(SEARCH("(Leer)",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3 D5">
+  <conditionalFormatting sqref="B2:B3 C5">
     <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="(Leer)">
       <formula>NOT(ISERROR(SEARCH("(Leer)",B2)))</formula>
     </cfRule>
@@ -973,7 +1000,7 @@
       <formula>NOT(ISERROR(SEARCH("(Leer)",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4 F4 A4:B5 G4:G5">
+  <conditionalFormatting sqref="C4 E4 A4:B5 F4:F5">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="(Leer)">
       <formula>NOT(ISERROR(SEARCH("(Leer)",A4)))</formula>
     </cfRule>
